--- a/PetStoreSmokeTest.xlsx
+++ b/PetStoreSmokeTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usavrsavanje\IT BootCamp\Kurs\QA6\test_PetStore_ITBootCampProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C5DAE0-FD79-4063-BEA0-93FC7499BDFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643B98FD-6D11-488C-8E0E-7F4657053C99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>Input number 5 in quantity field</t>
   </si>
   <si>
-    <t>Show number 5 in quantitiy field</t>
-  </si>
-  <si>
     <t>10. Checkout</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>Click on "Register Now" clickable link</t>
   </si>
   <si>
-    <t>Open registartion page</t>
-  </si>
-  <si>
     <t>16. Try to register</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>17.Fill registration form</t>
   </si>
   <si>
-    <t>Input jasar in User ID; Input ja123 in New password; Input ja123 in Repeat password; Input jasar in First name; Input ahmedovski in Last name; Input jasar@gmail.com in Email; Input 1112233445566 in Phone; Input Palanka in Address 1; Input Palanka1 in Address 2; Input Beograd in City: Input Serbia in State; Input 11000 in Zip; Input Serbia in Contry; Leave english selected in lang.pref; Leave FISH in fav.cat; Check Enable MyList; Check Enable MyBanner</t>
-  </si>
-  <si>
     <t>Show data in respected fields</t>
   </si>
   <si>
@@ -298,13 +289,38 @@
   </si>
   <si>
     <t>Orders page is opened showing text " Thank you, your order has been submitted" followed by the order info bellow</t>
+  </si>
+  <si>
+    <t>Show number 5 in quantity field</t>
+  </si>
+  <si>
+    <t>Open registration page</t>
+  </si>
+  <si>
+    <t>1.Input "jasar" in User ID;
+2. Input "ja123" in New password;
+ 3.Input "ja123" in Repeat password;
+ 4.Input "jasar" in First name; 
+5.Input "ahmedovski" in Last name;
+6. Input "jasar@gmail.com" in Email;
+7. Input "1112233445566" in Phone;
+8. Input "Palanka" in Address 1; 
+9.Input "Palanka1" in Address 2; 
+10.Input "Beograd" in City;
+11.Input "Serbia" in State; 
+12.Input "11000" in Zip; 
+13.Input "Serbia" in Country; 
+14.Leave English selected in lang.pref;
+15. Leave "FISH" in fav.cat; 
+16.Check *Enable* MyList; 
+17.Check *Enable* MyBanner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +342,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -356,16 +380,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -650,587 +697,705 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="G20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="360" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="E21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="G22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H22" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="E22" s="2" t="s">
+      <c r="F23" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="G23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H23" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="2" t="s">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H24" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="E24" s="4"/>
-      <c r="F24" s="2" t="s">
+      <c r="G25" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H25" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="G26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G27" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="5:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="2" t="s">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
+      <c r="H28" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G29" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
+      <c r="G30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G31" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H31" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="5:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="E30" s="4"/>
-      <c r="F30" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="7" t="s">
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="H32" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="2"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="4"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36" s="4"/>
-      <c r="F36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F40" s="2"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="4"/>
-      <c r="F41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="4"/>
-      <c r="F42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F46" s="2"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E47" s="4"/>
-      <c r="F47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E48" s="4"/>
-      <c r="F48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F52" s="2"/>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E53" s="4"/>
-      <c r="F53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E54" s="4"/>
-      <c r="F54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F58" s="2"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E59" s="4"/>
-      <c r="F59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E60" s="4"/>
-      <c r="F60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E63" s="2"/>
+      <c r="E63" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
